--- a/backend/django_admin/country/management/commands/TRIPBOZO.xlsx
+++ b/backend/django_admin/country/management/commands/TRIPBOZO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\projects\travel_buddy\backend\django_admin\country\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B2CAFA-0EAD-4AE8-8FEA-85626562E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADB28B-9947-4B57-86FD-B9E9749FC83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="25470" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="682">
   <si>
     <t>France</t>
   </si>
@@ -203,7 +203,10 @@
     <t>Booking.com</t>
   </si>
   <si>
-    <t>https://www.booking.com/</t>
+    <t>https://play.google.com/store/apps/details?id=com.booking&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/booking-com-hotels-travel/id367003839</t>
   </si>
   <si>
     <t>Trivago(cheap price)</t>
@@ -265,32 +268,13 @@
     <t>https://play.google.com/store/apps/details?id=com.jmc.android.tenkura&amp;hl=en_IN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>tenki.jp 日本気象協会の天気予報アプリ・雨雲レーダー on the App Store</t>
-    </r>
+    <t>https://apps.apple.com/us/app/tenki-jp-%E6%97%A5%E6%9C%AC%E6%B0%97%E8%B1%A1%E5%8D%94%E4%BC%9A%E3%81%AE%E5%A4%A9%E6%B0%97%E4%BA%88%E5%A0%B1%E3%82%A2%E3%83%97%E3%83%AA-%E9%9B%A8%E9%9B%B2%E3%83%AC%E3%83%BC%E3%83%80%E3%83%BC/id433865746</t>
   </si>
   <si>
     <t>Weathernews</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=jp.co.sorakaze.android.weatherjapan&amp;hl=en_IN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Weather News PRO on the App Store</t>
-    </r>
   </si>
   <si>
     <t>Teladoc Health</t>
@@ -583,7 +567,10 @@
     <t>Hotels.com</t>
   </si>
   <si>
-    <t>https://in.hotels.com/?locale=en_IN&amp;pos=HCOM_IN&amp;siteid=300000036</t>
+    <t>https://play.google.com/store/apps/details?id=com.hcom.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/hotels-com-book-hotels-more/id284971959</t>
   </si>
   <si>
     <t>Expedia</t>
@@ -723,7 +710,7 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>SP</t>
+    <t>ES</t>
   </si>
   <si>
     <t xml:space="preserve"> Freenow</t>
@@ -771,7 +758,7 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>TK</t>
+    <t>TR</t>
   </si>
   <si>
     <t>Trafi</t>
@@ -883,7 +870,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>GR</t>
+    <t>DE</t>
   </si>
   <si>
     <t>DB Navigator</t>
@@ -919,7 +906,10 @@
     <t>WetterOnline</t>
   </si>
   <si>
-    <t>http://wetter.com</t>
+    <t>https://play.google.com/store/apps/details?id=de.wetteronline.wetterapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/weather-radar-storm-alerts/id545993260</t>
   </si>
   <si>
     <t>communication</t>
@@ -987,7 +977,10 @@
     <t>Windy.com</t>
   </si>
   <si>
-    <t>https://www.windy.com/</t>
+    <t>https://play.google.com/store/apps/details?id=com.windyty.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/windy-com-weather-radar/id1161387262</t>
   </si>
   <si>
     <t>https://play.google.com/store/apps/details?id=com.viber.voip&amp;hl=en_IN</t>
@@ -1011,12 +1004,1173 @@
     <t>https://apps.apple.com/in/app/bbva-m%C3%A9xico/id374824226</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>FREENOW</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=taxi.android.client&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/freenow-taxi-and-more/id357852748</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.google.android.apps.maps&amp;hl=en</t>
+  </si>
+  <si>
+    <t>doctoranytime</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.doctoranytime.app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/doctoranytime/id1555253814</t>
+  </si>
+  <si>
+    <t>Diagnosou</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.revotech.diagnosou&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.goeuro.rosie&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.airbnb.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/airbnb/id401626263</t>
+  </si>
+  <si>
+    <t>Weather &amp; Radar – Storm Radar</t>
+  </si>
+  <si>
+    <t>Greece Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.accuweather.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/weather/id1069513131</t>
+  </si>
+  <si>
+    <t>http://play.google.com/store/apps/details?id=com.whatsapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.viber.voip&amp;hl=en</t>
+  </si>
+  <si>
+    <t>efood</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.venturegeeks.efood&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/efood-delivery-food-grocery/id621353976</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.wolt.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.revolut.business&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Alpha Travel Austria</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.stoxline.alphatravel.austria&amp;hl=en</t>
+  </si>
+  <si>
+    <t>WienMobil</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=at.wienerlinien.wienmobillab&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/wienmobil/id1107918142</t>
+  </si>
+  <si>
+    <t>Diagnosia</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.diagnosia.fachinformation&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Redcare: Online Pharmacy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=shop.shop_apotheke.com.shopapotheke&amp;hl=en</t>
+  </si>
+  <si>
+    <t>B&amp;B Hotels</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bbhotel.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>IHG One Rewards</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ihg.apps.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/ihg-hotels-rewards/id368217298</t>
+  </si>
+  <si>
+    <t>Austria Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.whatsapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telegram </t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=org.telegram.messenger&amp;hl=en</t>
+  </si>
+  <si>
+    <t>foodora: Food &amp; Groceries</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=se.onlinepizza&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Lieferando</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.yopeso.lieferando&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/lieferando-de/id419724490</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.google.android.apps.walletnfcrel&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Bank Austria MobileBanking</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bankaustria.android.bn&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Comboios de Portugal</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=pt.cp.mobiapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/comboios-de-portugal/id1105415627</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=ee.mtakso.client&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/bolt-request-a-ride/id675033630</t>
+  </si>
+  <si>
+    <t>MayDay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=love.mayday.app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/hay-day/id506627515</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/whatsapp-messenger/id310633997</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/telegram-messenger/id686449807</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.glovo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/glovo-food-delivery-takeaway/id951812684</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ubercab.eats&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/uber-eats-food-groceries/id1058959277</t>
+  </si>
+  <si>
+    <t>MB WAY</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=pt.sibs.android.mbway&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/mb-way/id918126133</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Careem</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.careem.acma&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/careem-rides-food-more/id592978487</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ubercab&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://apps.apple.com/us/app/uber-request-a-ride/id368677368</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.agoda.mobile.consumer&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/agoda-cheap-flights-hotels/id440676901</t>
+  </si>
+  <si>
+    <t>Trivago</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.trivago&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/trivago-compare-hotel-prices/id376888389</t>
+  </si>
+  <si>
+    <t>Ziina</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ziina.app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/ziina-pay-get-paid-instantly/id1507246381</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.google.android.apps.translate&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Talabat</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.talabat&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/talabat-food-grocery-more/id451001072</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>9292 OV</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=nl.negentwee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/9292-reisplanner-ov-e-ticket/id556557690</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.citymapper.app.release&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Mobi Doctor</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.doctorondemand.android.patient&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/rxdx-doctor-mobihistree/id1669492113</t>
+  </si>
+  <si>
+    <t>Spoedzorg op Reis</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=nl.cz.spoedzorgopreis&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/windy-com-weather-radar/id1161387262</t>
+  </si>
+  <si>
+    <t>WeatherPro</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mg.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/weatherpro-lite/id997728895</t>
+  </si>
+  <si>
+    <t>Deliveroo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.deliveroo.orderapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Google Pay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.google.android.apps.nbu.paisa.user&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/uber-request-a-ride/id368677368</t>
+  </si>
+  <si>
+    <t>Explore Croatia</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=co.mediatorium.explorecroatia&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/explore-croatia/id1669535822</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=fr.doctolib.www&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/doctolib-your-health-partner/id925339063</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.getyourguide.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/getyourguide-plan-book/id705079381</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/accuweather-weather-forecast/id300048137</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/google-translate/id414706506</t>
+  </si>
+  <si>
+    <t>Uber Eats,</t>
+  </si>
+  <si>
+    <t>Aircash Croatia</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aircash.aircash&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Switzerland Travel Guide</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.etips.switzerland.travel.guide&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/switzerland-travel-guide/id1083913229</t>
+  </si>
+  <si>
+    <t>SwitzerlandMobility</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=ch.schweizmobil&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/switzerlandmobility/id527194959</t>
+  </si>
+  <si>
+    <t>Care to Translate</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.siv&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hoteltonight.android.prod&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://apps.apple.com/us/app/hoteltonight-booking-deals/id407690035</t>
+  </si>
+  <si>
+    <t>Google Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.google.android.apps.weather&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/google-more-ways-to-search/id284815942</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.justeat.app.uk&amp;hl=en</t>
+  </si>
+  <si>
+    <t>TWINT</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=ch.twint.payment&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/ubs-twint/id989192632</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Waze</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.waze&amp;hl=en</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=net.osmand&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/osmand-maps-travel-navigate/id934850257</t>
+  </si>
+  <si>
+    <t>Halodoc</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.linkdokter.halodoc.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/halodoc-doctor-medicine/id1067217981</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=jp.naver.line.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://tv.apple.com/in/show/the-line/umc.cmc.4u53f7zokr7g40tjj4gs61xbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoFood </t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.wlf.gofood&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/gofood/id1568078791</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.grabtaxi.passenger&amp;hl=en</t>
+  </si>
+  <si>
+    <t>GoPay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.gojek.gopay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/gopay-transfer-pulsa-bills/id6446321594</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Grab</t>
+  </si>
+  <si>
+    <t>Doctor Anywhere</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.doctoranywhere&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/doctor-anywhere-telehealth/id1273714922</t>
+  </si>
+  <si>
+    <t>Traveloka</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.traveloka.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/traveloka-book-hotel-flight/id898244857</t>
+  </si>
+  <si>
+    <t>Klook</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.klook&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/klook-travel-hotels-leisure/id961850126</t>
+  </si>
+  <si>
+    <t>Vietnam Weather Forecast</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.coloros.weather2&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/weather/id1069513131</t>
+  </si>
+  <si>
+    <t>Zalo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.zing.zalo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/zalo/id579523206</t>
+  </si>
+  <si>
+    <t>Baemin</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.sampleapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/%EB%B0%B0%EB%8B%AC%EC%9D%98%EB%AF%BC%EC%A1%B1-%EB%AC%B4%EB%A3%8C%EB%B0%B0%EB%8B%AC-%EB%B0%B0%EB%AF%BC%ED%81%B4%EB%9F%BD/id378084485</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/momo%E9%99%8C%E9%99%8C-%E7%9B%B4%E6%92%AD%E8%AF%AD%E9%9F%B3%E4%BA%A4%E5%8F%8B%E8%A7%86%E9%A2%91%E5%B9%B3%E5%8F%B0/id448165862</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Waze – GPS, Maps &amp; Traffic</t>
+  </si>
+  <si>
+    <t>Doctors on Demand Australia</t>
+  </si>
+  <si>
+    <t>HotDoc</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=au.com.hotdoc.android.hotdoc&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/hotdoc/id757696633</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/hoteltonight-booking-deals/id407690035</t>
+  </si>
+  <si>
+    <t>Australia Travel Hotel Booking</t>
+  </si>
+  <si>
+    <t>BOM Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=au.gov.bom.metview&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/bom-weather/id1100096880</t>
+  </si>
+  <si>
+    <t>WillyWeather</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/willyweather/id592978502</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.dd.doordash&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.paypal.android.p2pmobile&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>DoctorOnCall</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/search?q=DoctorOnCall&amp;c=apps&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Malaysia Medical Check</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.bongshaiit.malaysiamedicalcheck&amp;hl=en</t>
+  </si>
+  <si>
+    <t>MY Weather</t>
+  </si>
+  <si>
+    <t>http://apps.apple.com/us/app/myradar-accurate-weather-radar/id322439990</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.global.foodpanda.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>ShopeeFood</t>
+  </si>
+  <si>
+    <t>MyPay Malaysia</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.dapat.mypay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/alliance-mypay/id1240428649</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>VisitKorea</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.visitkorea.eng&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/visitkorea/id417340885</t>
+  </si>
+  <si>
+    <t>Where We Go</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.here.app.maps&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/where-we-go/id1526286966</t>
+  </si>
+  <si>
+    <t>Medicheck</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=io.medisearch.twa&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/medicheck/id1158809592</t>
+  </si>
+  <si>
+    <t>UpToDate</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.uptodate.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/uptodate/id334265345</t>
+  </si>
+  <si>
+    <t>Hotelpass</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hotelpass.app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/resortpass/id1557539492</t>
+  </si>
+  <si>
+    <t>KMA Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=kr.go.kma.weatherapp&amp;hl=en</t>
+  </si>
+  <si>
+    <t>KakaoTalk: Messenger</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.kakao.talk&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/kakaotalk/id362057947</t>
+  </si>
+  <si>
+    <t>Shuttle: Food Delivery Korea</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.goshuttle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Yogiyo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.fineapp.yogiyo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/yogiyo-food-delivery/id543831532</t>
+  </si>
+  <si>
+    <t>WOWPASS: Go Cashless in Korea</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.wow.wowpass&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/wowpass-go-cashless-in-korea/id1626691440</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>MakeMyTrip</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.makemytrip&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/makemytrip-flight-hotel-bus/id530488359</t>
+  </si>
+  <si>
+    <t>SwaRail (IRCTC)</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=org.cris.aikyam&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/ixigo-trains-ticket-booking/id1148984317</t>
+  </si>
+  <si>
+    <t>India Tourism</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.stepuptechnosys.indiatourism&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/incredible-india-app/id6744102413</t>
+  </si>
+  <si>
+    <t>Tata 1mg</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aranoah.healthkart.plus&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/tata-1mg-healthcare-app/id554578419</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.practo.fabric&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/practo-consult-doctor-online/id953772015</t>
+  </si>
+  <si>
+    <t>OYO</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.oyo.consumer&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/oyo-hotel-booking-app-deals/id988141624</t>
+  </si>
+  <si>
+    <t>Goibibo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.goibibo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/goibibo-hotel-flight-train/id631927169</t>
+  </si>
+  <si>
+    <t>Mausam</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.imd.masuam&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/mausam/id1522893967</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.application.zomato&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=in.swiggy.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/swiggy-food-instamart-dineout/id989540920</t>
+  </si>
+  <si>
+    <t>Paytm</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=net.one97.paytm&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/paytm-secure-upi-payments/id473941634</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Altibbi</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.altibbi.cds&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/altibbi-%D8%A7%D9%84%D8%B7%D8%A8%D9%8A/id1065353019</t>
+  </si>
+  <si>
+    <t>Medisense</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.vistas.medisense_pro&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Arab Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.arabiaweather.main_app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>HungerStation</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.hungerstation.android.web&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/hungerstation/id596011949</t>
+  </si>
+  <si>
+    <t>Mrsool</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mrsool&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/mrsool-app-%D8%AA%D8%B7%D8%A8%D9%8A%D9%82-%D9%85%D8%B1%D8%B3%D9%88%D9%84/id1040038773</t>
+  </si>
+  <si>
+    <t>Mada Pay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mada.madapay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/interpay-softpos/id6443543930</t>
+  </si>
+  <si>
+    <t>STC Pay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=sa.com.stcpay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/stc-pay/id1364197140</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Air Canada + Aeroplan</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.aircanada&amp;hl=en</t>
+  </si>
+  <si>
+    <t>FreeStyle Libre 2</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.freestylelibre.app.in&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/freestyle-librelink-in/id6448857658</t>
+  </si>
+  <si>
+    <t>The Weather Network</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.pelmorex.WeatherEyeAndroid&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/the-weather-network/id473299958</t>
+  </si>
+  <si>
+    <t>Weather by Google</t>
+  </si>
+  <si>
+    <t>Facebook Messenger</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.facebook.orca&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=au.com.sensis.skip&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/skip/id867304884</t>
+  </si>
+  <si>
+    <t>Apple Pay</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/apple-pay/</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Moovit</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.tranzmate&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/moovit-public-transport-live/id498477945</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.one_mobile&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/doctoralia-mexico/id1471632318</t>
+  </si>
+  <si>
+    <t>Meu SUS Digital</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=br.gov.datasus.cnsdigital&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/meu-sus-digital/id1045754608</t>
+  </si>
+  <si>
+    <t>Decolar</t>
+  </si>
+  <si>
+    <t>http://play.google.com/store/apps/details?id=com.gm.decolar&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/despegar-vuelos-y-hoteles/id511479725</t>
+  </si>
+  <si>
+    <t>Climatempo</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.mobimidia.climaTempo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/climatempo-meteorologia/id407856257</t>
+  </si>
+  <si>
+    <t>iFood</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.ifood.tv&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/ifood-shop/id1623372243</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.grability.rappi&amp;hl=en</t>
+  </si>
+  <si>
+    <t>PicPay</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.picpay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/banco-picpay-conta-cart%C3%A3o-e/id561524792</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Visit Egypt</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.egypt.visitegypt.app&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Egypt Health</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=get.pid.egypt.health.passport&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.gm.decolar&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Egypt Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/search?q=WhatsApp&amp;c=apps&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Menu Egypt</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.menuegypt.menuegupt&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/menu-egypt/id1630657799</t>
+  </si>
+  <si>
+    <t>elmenus</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/elmenus/id843479108</t>
+  </si>
+  <si>
+    <t>InstaPay Egypt</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.egyptianbanks.instapay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/instapay-egypt/id1592108795</t>
+  </si>
+  <si>
+    <t>OPay Egypt</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=team.opay.pay&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/opay-we-are-beyond-banking/id1463776084</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ONCF Voyages</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=ma.oncf.oncftrafic&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/oncf-trafic/id1246696539</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/careem-rides-food-more/id592978487</t>
+  </si>
+  <si>
+    <t>Skyscanner</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=net.skyscanner.android.main&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/in/app/skyscanner-flights-travel/id415458524</t>
+  </si>
+  <si>
+    <t>Météo Maroc</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=aplicacion.tiempo&amp;hl=en</t>
+  </si>
+  <si>
+    <t>XE Currency Converter</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.xe.currency&amp;hl=en</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>MyTherapy – Meds &amp; Pill Reminder</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=eu.smartpatient.mytherapy&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/meds-pill-reminder-mytherapy/id662170995</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.expedia.bookings&amp;hl=en</t>
+  </si>
+  <si>
+    <t>BBC Weather</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=uk.gov.metoffice.weather.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.transferwise.android&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=com.revolut.revolut&amp;hl=en</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>App Name</t>
   </si>
   <si>
@@ -1024,16 +2178,13 @@
   </si>
   <si>
     <t>iOS Link</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1066,7 +2217,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
@@ -1079,15 +2229,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1097,6 +2262,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1116,10 +2288,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1127,10 +2300,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1347,10 +2530,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,26 +2545,26 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>676</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>677</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>678</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>289</v>
+        <v>679</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>681</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,11 +2580,11 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +2664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +2684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +2704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +2724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +2744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +2764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +2784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +2804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +2824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +2864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,10 +2881,10 @@
         <v>55</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,16 +2895,16 @@
         <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,104 +2912,104 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
@@ -1841,12 +3024,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
@@ -1861,12 +3044,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>29</v>
@@ -1881,12 +3064,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>29</v>
@@ -1901,12 +3084,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>29</v>
@@ -1921,12 +3104,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -1941,12 +3124,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -1961,12 +3144,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>46</v>
@@ -1981,12 +3164,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
@@ -2001,12 +3184,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>53</v>
@@ -2021,12 +3204,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>53</v>
@@ -2041,7 +3224,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -2052,16 +3235,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -2081,7 +3264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2101,7 +3284,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -2121,7 +3304,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -2141,7 +3324,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>108</v>
       </c>
@@ -2161,7 +3344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -2181,7 +3364,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2201,7 +3384,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -2238,10 +3421,10 @@
         <v>55</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -2261,7 +3444,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>108</v>
       </c>
@@ -2281,7 +3464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -2301,7 +3484,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>108</v>
       </c>
@@ -2321,7 +3504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -2341,7 +3524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>140</v>
       </c>
@@ -2361,7 +3544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
@@ -2381,7 +3564,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +3584,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -2421,7 +3604,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>140</v>
       </c>
@@ -2438,10 +3621,10 @@
         <v>55</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -2458,10 +3641,10 @@
         <v>155</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -2472,16 +3655,16 @@
         <v>53</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -2492,16 +3675,16 @@
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
@@ -2521,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -2532,17 +3715,17 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -2553,16 +3736,16 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>140</v>
       </c>
@@ -2582,7 +3765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
@@ -2593,16 +3776,16 @@
         <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>140</v>
       </c>
@@ -2613,16 +3796,16 @@
         <v>39</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>140</v>
       </c>
@@ -2642,7 +3825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>140</v>
       </c>
@@ -2653,27 +3836,27 @@
         <v>46</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>4</v>
@@ -2682,72 +3865,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>53</v>
@@ -2759,75 +3942,75 @@
         <v>55</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>39</v>
@@ -2842,72 +4025,72 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>46</v>
@@ -2922,58 +4105,58 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>4</v>
@@ -2982,32 +4165,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>53</v>
@@ -3019,15 +4202,15 @@
         <v>55</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>53</v>
@@ -3039,75 +4222,75 @@
         <v>155</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>39</v>
@@ -3122,92 +4305,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>46</v>
@@ -3224,170 +4407,170 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>53</v>
@@ -3402,32 +4585,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>39</v>
@@ -3442,138 +4625,138 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F107" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>4</v>
@@ -3582,12 +4765,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -3602,52 +4785,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>53</v>
@@ -3659,38 +4842,38 @@
         <v>55</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>40</v>
@@ -3702,52 +4885,52 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="B119" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>29</v>
@@ -3762,118 +4945,118 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>195</v>
+      <c r="D122" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>78</v>
@@ -3882,12 +5065,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>53</v>
@@ -3899,78 +5082,78 @@
         <v>55</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>40</v>
@@ -3982,52 +5165,52 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>29</v>
@@ -4042,12 +5225,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>46</v>
@@ -4062,25 +5245,4273 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A234" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A236" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A237" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A238" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A244" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A249" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A250" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A253" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A255" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A256" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A258" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A259" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A260" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A261" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A263" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A266" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A270" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A272" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A273" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A274" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A275" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A277" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A278" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A279" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A282" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A283" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A284" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A285" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A286" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A287" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A288" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A289" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A291" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A292" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A293" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A294" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A295" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A297" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A298" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A299" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A300" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A301" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A302" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A305" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A307" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A308" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A309" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A310" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A313" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A314" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A317" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="E318" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F318" s="3" t="s">
         <v>286</v>
       </c>
+    </row>
+    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A319" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A320" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A322" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A325" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A326" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A333" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A334" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A335" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A336" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A337" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A338" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A339" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A340" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A341" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A342" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A343" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A344" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A345" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A347" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A348" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A349" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A350" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B350" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A351" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A352" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A353" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4366,6 +9797,408 @@
     <hyperlink ref="F135" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
     <hyperlink ref="E136" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
     <hyperlink ref="F136" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="E137" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="F137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="E138" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="F138" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E139" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="F139" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E140" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="E141" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="F141" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="E142" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="F142" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E143" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E144" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="F144" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E145" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="F145" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="E146" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="F146" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E147" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="F147" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="E148" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="F148" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="E149" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="F149" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="E150" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="E151" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="F151" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="E152" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="E153" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E154" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="E155" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="F155" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="E156" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="E157" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="E158" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="F158" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E159" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="F159" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="E160" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="E161" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="F161" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="E162" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="F162" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E163" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="E164" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="F164" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E165" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="F165" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="E166" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="F166" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="E167" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="F167" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E168" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E169" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="F169" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="E170" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="F170" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E171" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="F171" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="E172" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="F172" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="E173" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="F173" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="E174" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="F174" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="E175" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="F175" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="E176" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="E177" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="F177" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E178" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="F178" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E179" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="E180" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="F180" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="E181" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="F181" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E182" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="F182" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E183" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="F183" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="E184" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="F184" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E185" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="F185" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="E186" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="F186" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="E187" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="F187" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="E188" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="E189" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="F189" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E190" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="F190" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="E191" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="F191" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="E192" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="F192" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="E193" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="F193" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="E194" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="F194" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E195" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="E196" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="F196" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E197" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="F197" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E198" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="F198" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="E199" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="F199" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="E200" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="F200" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="E201" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="F201" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="E202" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="F202" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="E203" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="F203" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E204" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="F204" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="E205" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="F205" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="E206" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="E207" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="F207" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E208" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="F208" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="E209" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E210" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="F210" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="E211" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="F211" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="E212" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="F212" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="E213" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="F213" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="E214" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="F214" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="E215" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="F215" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="E216" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="F216" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="E217" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="F217" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="E218" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="F218" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="E219" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="F219" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="E220" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="F220" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="E221" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="F221" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="E222" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="F222" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="E223" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="F223" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="E224" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="F224" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="E225" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="F225" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="E226" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="F226" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="E227" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="F227" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="E228" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="F228" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="E229" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="F229" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="E230" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="F230" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="E231" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="F231" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="E232" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="F232" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="E233" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="F233" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="E234" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="E235" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="F235" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="E236" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="F236" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="E237" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="F237" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="E238" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="F238" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="E239" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="F239" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="F240" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="E241" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="E242" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="F242" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="E243" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="E244" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="F244" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="E245" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="F245" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="E246" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="E247" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="F247" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="E248" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="F248" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="E249" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="F249" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="E250" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="F250" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="E251" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="F251" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="E252" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="F252" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="E253" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="F253" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="E254" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="E255" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="E256" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="F256" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="E257" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="F257" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="E258" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="F258" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="E259" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="F259" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="E260" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="F260" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="E261" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="F261" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="E262" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="F262" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="E263" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="F263" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="E264" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="F264" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="E265" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="F265" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="E266" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="F266" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="E267" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="F267" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="E268" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="E269" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="F269" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="E270" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="E271" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="F271" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="E272" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="F272" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="E273" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="F273" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="E274" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="F274" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="E275" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="F275" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="E276" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="F276" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="E277" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="F277" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="E278" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="F278" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="E279" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="F279" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="E280" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="F280" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="E281" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="F281" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="E282" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="F282" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="E283" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="F283" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="E284" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="F284" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="E285" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="F285" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="E286" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="F286" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="E287" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="F287" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="E288" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="F288" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="E289" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="F289" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="E290" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="E291" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="F291" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="E292" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="F292" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="E293" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="E294" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="F294" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="E295" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="F295" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="E296" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="F296" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="E297" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="F297" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="E298" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="F298" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="E299" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="E300" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="F300" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="E301" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="F301" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="E302" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="F302" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="E303" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="F303" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="E304" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="F304" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="E305" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="F305" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="E306" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="F306" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="F307" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="E308" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="F308" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="E309" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="F309" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="E310" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="F310" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="E311" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="F311" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="E312" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="F312" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="E313" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="F313" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="E314" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="F314" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="E315" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="F315" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="E316" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="F316" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="E317" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="F317" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="E318" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="F318" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="E319" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="F319" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="E320" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="E321" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="F321" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="E322" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="E323" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="F323" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="E324" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="F324" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="E325" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="F325" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="E326" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="F326" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="E327" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="F327" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="E328" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="F328" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="E329" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="F329" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="E330" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="F330" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="E331" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="F331" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="E332" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="F332" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="E333" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="F333" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="E334" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="F334" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="E335" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="F335" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="E336" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="F336" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="E337" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="F337" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="E338" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="F338" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="E339" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="F339" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="E340" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="F340" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="E341" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="F341" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="E342" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="F342" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="E343" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="F343" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="E344" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="F344" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="E345" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="F345" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="E346" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="F346" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="E347" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="F347" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="E348" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="F348" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="E349" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="F349" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="E350" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="F350" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="E351" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="F351" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="E352" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="F352" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="E353" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="F353" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
